--- a/data/trans_camb/P68-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P68-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-5.826406173276283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.304684343997647</v>
+        <v>-1.304684343997653</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>10.52892874148573</v>
@@ -655,7 +655,7 @@
         <v>2.075391520816705</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>13.62671207462906</v>
+        <v>13.62671207462905</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.555108011483004</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.95771958141768</v>
+        <v>-13.16809917760887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.70341961635646</v>
+        <v>-14.36345117711563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.7549068742061</v>
+        <v>-11.47599389527377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.643136627368706</v>
+        <v>2.315358002117268</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.44336279425589</v>
+        <v>-5.810809713086243</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.786165843616671</v>
+        <v>5.758170812498713</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.261578176203951</v>
+        <v>-2.978405095118044</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.088887802904377</v>
+        <v>-8.593153944415022</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.141365285490665</v>
+        <v>-1.906818807090532</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.970401410431049</v>
+        <v>4.047980975191275</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.19277011816989</v>
+        <v>2.503959608244437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.198022529025028</v>
+        <v>8.535108618717668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.15257386793358</v>
+        <v>19.35246620005094</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.527158285521708</v>
+        <v>9.016350807632863</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.83101311868683</v>
+        <v>22.50810144491841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.02172992796538</v>
+        <v>8.709623379002306</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.274465981861559</v>
+        <v>3.068589633009137</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.5563211997661</v>
+        <v>12.27428990128395</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1698975509975837</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.03804449402906026</v>
+        <v>-0.03804449402906043</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5032609976124081</v>
@@ -760,7 +760,7 @@
         <v>0.09919941836885905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.651328628128522</v>
+        <v>0.6513286281285218</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.09118142918294317</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3385310612179379</v>
+        <v>-0.3286599346188827</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3721529328460877</v>
+        <v>-0.3742111770074434</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.27534887092757</v>
+        <v>-0.3024499933405428</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06488357495893966</v>
+        <v>0.1028136981611364</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2218870896162124</v>
+        <v>-0.2321013282383242</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1819291324117398</v>
+        <v>0.2253441614826746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1039737495928686</v>
+        <v>-0.09661934528751435</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2634483411532581</v>
+        <v>-0.2703678794696734</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03978084237263108</v>
+        <v>-0.05515381797520175</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1321789274474158</v>
+        <v>0.1478919506940329</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07261459348271983</v>
+        <v>0.08932478112775953</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3216049412365448</v>
+        <v>0.2743369473167896</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.103287921665752</v>
+        <v>1.205820898277874</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5569401497769439</v>
+        <v>0.5234447842267502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.374761010374834</v>
+        <v>1.378434700656319</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3724825741048497</v>
+        <v>0.3448267303484149</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1313001147549368</v>
+        <v>0.1308159833418987</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.501323045755254</v>
+        <v>0.5060418690368035</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.476341955036969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.087736970615694</v>
+        <v>-1.087736970615699</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.476162323477037</v>
@@ -869,7 +869,7 @@
         <v>-0.4096541083686567</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.17041926221478</v>
+        <v>7.170419262214775</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.650928402505178</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.305947926114429</v>
+        <v>-8.372152295833811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.307063899515522</v>
+        <v>-4.441175177894237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.404585441999688</v>
+        <v>-6.602206179355657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.808746219164878</v>
+        <v>-6.199270582681515</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.156970311637156</v>
+        <v>-7.595648132680077</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4007403273304136</v>
+        <v>0.2130406405821999</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.350106757497883</v>
+        <v>-6.298418216568153</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.912099817111373</v>
+        <v>-4.108819269852217</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.430626813923419</v>
+        <v>-2.451086816959616</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.115074399896737</v>
+        <v>3.024462036671778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.096626236293941</v>
+        <v>7.209927924309611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.076720281020926</v>
+        <v>4.796902672290694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.696995123330051</v>
+        <v>9.761810535448072</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.667399894348244</v>
+        <v>7.111189016070678</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.18007688954456</v>
+        <v>13.80283451187613</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.374375365500024</v>
+        <v>2.815022149389183</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.077440624970812</v>
+        <v>4.572321830136882</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.591440097856102</v>
+        <v>5.964918078524408</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.05478801729483485</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04036663169735061</v>
+        <v>-0.04036663169735081</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06486338217399837</v>
@@ -974,7 +974,7 @@
         <v>-0.01800042621849105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3150721553828302</v>
+        <v>0.31507215538283</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.06437011715604302</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2865078249255238</v>
+        <v>-0.2900988666221256</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1574623449738406</v>
+        <v>-0.1519724163635175</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2219867073231219</v>
+        <v>-0.2303674486190377</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2208800541507186</v>
+        <v>-0.227637855376234</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.277772251064363</v>
+        <v>-0.2847743376260874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00742433263917215</v>
+        <v>0.006718359314878415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2300959112364795</v>
+        <v>-0.2299286432783981</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1409002818868119</v>
+        <v>-0.1500530936277818</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08771776142763547</v>
+        <v>-0.0892637617869602</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1245453064588986</v>
+        <v>0.1253825177105752</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2842915627071279</v>
+        <v>0.2979429529405144</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2052151854896555</v>
+        <v>0.1972008442301375</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4671340676046524</v>
+        <v>0.519039898576919</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4121000138387635</v>
+        <v>0.3609638493164476</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7434309066743564</v>
+        <v>0.7260403920243115</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1359693126753899</v>
+        <v>0.1172092052914646</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2152637853447417</v>
+        <v>0.1920840135382309</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2775044851340462</v>
+        <v>0.2614849367411935</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.744703650883844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.539332361519317</v>
+        <v>-5.539332361519314</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-6.366939860480961</v>
@@ -1083,7 +1083,7 @@
         <v>-6.14595141313837</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.743665270883097</v>
+        <v>-2.743665270883092</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.6157199358291926</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.333182467213723</v>
+        <v>-2.600621244235053</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.510096886751652</v>
+        <v>-6.48761740705915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.078794427255</v>
+        <v>-10.34035721167284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.086199404068</v>
+        <v>-12.45557319701623</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.81793941726606</v>
+        <v>-11.9940031620097</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.181731832667028</v>
+        <v>-8.350360572713775</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.755591152744483</v>
+        <v>-4.571014395198001</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.221651906915456</v>
+        <v>-7.115252134608621</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.566189712069776</v>
+        <v>-7.61140963369621</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.738533429251016</v>
+        <v>8.019055414979785</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.292224451746169</v>
+        <v>3.613754432527819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6114438678435515</v>
+        <v>-1.027762512710229</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3535919450937305</v>
+        <v>-0.4491686988911185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.2760701699491656</v>
+        <v>0.06285931402006245</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.848423437916326</v>
+        <v>2.26115920224633</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.305076908220641</v>
+        <v>3.288097249736555</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1439461081440343</v>
+        <v>0.7041446203073146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.8126771318962694</v>
+        <v>-0.9471415678934145</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.08266019769865628</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2624413079492291</v>
+        <v>-0.2624413079492289</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2881526662324964</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2781512508424134</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1241718125785387</v>
+        <v>-0.1241718125785384</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02871949458483013</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1020002115269638</v>
+        <v>-0.1135539610948879</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.286388045394734</v>
+        <v>-0.2779332472734622</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4364939321859067</v>
+        <v>-0.4352997290868907</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4943043141463186</v>
+        <v>-0.4916658701731448</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4831413404889791</v>
+        <v>-0.4712698358091448</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3129268937114467</v>
+        <v>-0.3309288699411827</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2100077305783846</v>
+        <v>-0.197999786733524</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3157686400005618</v>
+        <v>-0.3088538332053247</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3278852067332954</v>
+        <v>-0.3216031288096985</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4485374513806174</v>
+        <v>0.4171410021668888</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1733611497104127</v>
+        <v>0.1967681273243641</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02927606944870692</v>
+        <v>-0.04883126517006588</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01737806076938219</v>
+        <v>0.0005463100160449084</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.00783378256565459</v>
+        <v>0.01504937416757799</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1640012607296651</v>
+        <v>0.1320775958524026</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1642837034471978</v>
+        <v>0.1660873007710062</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01655124257123456</v>
+        <v>0.03977009725115519</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03368051218690771</v>
+        <v>-0.05040546428018329</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.235259244992169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.490427971753134</v>
+        <v>-5.490427971753137</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.165830347846075</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.51610771574171</v>
+        <v>-12.86683368559579</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.530391887534728</v>
+        <v>-5.081543835236292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.5493890361162</v>
+        <v>-11.02910337743626</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.235562806369467</v>
+        <v>-7.409883382921496</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.954463497858431</v>
+        <v>-4.705358207812219</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.974093972318483</v>
+        <v>-8.908065068955061</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.454900928188138</v>
+        <v>-8.982657497163132</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.882249350368145</v>
+        <v>-2.754555819601257</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.42082405556893</v>
+        <v>-8.819307674601395</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3500032204070301</v>
+        <v>1.175860190648962</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.30246376182413</v>
+        <v>9.998332109203078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1869133863409968</v>
+        <v>0.7381516677771368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.979366861733924</v>
+        <v>10.48805296057697</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.52583492583465</v>
+        <v>13.86312418803774</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.01844853697863</v>
+        <v>4.935286637681222</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.000185023512468</v>
+        <v>1.70498954134686</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.998570508105681</v>
+        <v>8.855607190355055</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1811518889781101</v>
+        <v>0.4570921055810885</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1004203092801397</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2466606395830885</v>
+        <v>-0.2466606395830886</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.05935829413008732</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4788309048381</v>
+        <v>-0.4954804573095388</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1963364064038395</v>
+        <v>-0.2014318176985362</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4525366705852343</v>
+        <v>-0.426240736974201</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.306066539393607</v>
+        <v>-0.3136773909501979</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2096972322466449</v>
+        <v>-0.1916765970658411</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3509324810441584</v>
+        <v>-0.3582556952376051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3547817282364935</v>
+        <v>-0.3769402913801534</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1254598479140922</v>
+        <v>-0.1158330994658115</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3425315069463582</v>
+        <v>-0.35443504974071</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04844578330130007</v>
+        <v>0.07169470075121806</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5545022857770475</v>
+        <v>0.526799033223927</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.008956149317533326</v>
+        <v>0.04407445055686361</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6517331954763663</v>
+        <v>0.7247776014971347</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9031139887753273</v>
+        <v>0.9067838986675325</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3786340653915605</v>
+        <v>0.3492023013325077</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1061281763122029</v>
+        <v>0.091611752761664</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4767801320189914</v>
+        <v>0.4779753252884729</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.009589170879196258</v>
+        <v>0.0235247979851716</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.501876677902464</v>
+        <v>-4.854381074069209</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.527363834132122</v>
+        <v>-3.311888601088814</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.637947962441034</v>
+        <v>-7.526007137447792</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.634769517806506</v>
+        <v>-2.432873955246965</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.273393954036144</v>
+        <v>-3.877395897932733</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.191765744411983</v>
+        <v>-1.998588764814681</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.126815303617287</v>
+        <v>-2.971049620841347</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.071183463671598</v>
+        <v>-3.022576048546008</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.501020297628004</v>
+        <v>-4.263158661988089</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.449191652606443</v>
+        <v>1.499850680198964</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.906578523389922</v>
+        <v>2.687031441104872</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.868777334760887</v>
+        <v>-1.690966078561572</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.332218286238272</v>
+        <v>5.062377181444019</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.846882411959775</v>
+        <v>3.124227811588617</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.400132285665963</v>
+        <v>4.617906571977807</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.849198328454243</v>
+        <v>1.881895969076877</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.555587262797726</v>
+        <v>1.898131716584528</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.1159895400872499</v>
+        <v>0.03702215967101707</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1737010175345685</v>
+        <v>-0.1847623446224056</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1344822283022407</v>
+        <v>-0.1270106146489057</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2923173312164761</v>
+        <v>-0.2837926133463021</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1135787038524522</v>
+        <v>-0.1021205958857133</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1812204013214412</v>
+        <v>-0.1661441511632295</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09192182727930097</v>
+        <v>-0.08036899816744934</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1273456919281062</v>
+        <v>-0.1211731452614835</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1253099687240537</v>
+        <v>-0.1226544717491094</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1809580352869915</v>
+        <v>-0.1713827741582695</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.0639164415347374</v>
+        <v>0.0623166891105954</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1230763319250748</v>
+        <v>0.1116358419240579</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.07807318904939203</v>
+        <v>-0.06867191039375706</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2737996927603355</v>
+        <v>0.2497417091847951</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.143019676231115</v>
+        <v>0.1636846981100479</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2255775192348201</v>
+        <v>0.2346250790909871</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08205716065395066</v>
+        <v>0.08347422827482762</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06783333410510138</v>
+        <v>0.08106617346881456</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.005251261770025549</v>
+        <v>0.00183742006712828</v>
       </c>
     </row>
     <row r="34">
